--- a/results/Confusion Matrix.xlsx
+++ b/results/Confusion Matrix.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="16640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="16640" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="82">
   <si>
     <t>Predicted Classification</t>
   </si>
@@ -46,18 +49,15 @@
     <t>Pearson Correlation Coffecient, SDD*SDS</t>
   </si>
   <si>
-    <t xml:space="preserve">TP = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN = </t>
-  </si>
-  <si>
     <t>TP = 9.0</t>
   </si>
   <si>
     <t>FP = 2.0</t>
   </si>
   <si>
+    <t>TN = 10.0</t>
+  </si>
+  <si>
     <t>TP = 8.0</t>
   </si>
   <si>
@@ -97,6 +97,9 @@
     <t>TP = 7.0</t>
   </si>
   <si>
+    <t>TN = 12.0</t>
+  </si>
+  <si>
     <t>TP = 13.0</t>
   </si>
   <si>
@@ -115,17 +118,164 @@
     <t>K - Nearest Neighbor (New Dataset)</t>
   </si>
   <si>
-    <t>FP =</t>
-  </si>
-  <si>
-    <t>TN =</t>
+    <t>FP = 9.0</t>
+  </si>
+  <si>
+    <t>FN = 3.0</t>
+  </si>
+  <si>
+    <t>TN =10.0</t>
+  </si>
+  <si>
+    <t>FP =9.0</t>
+  </si>
+  <si>
+    <t>FN = 7.0</t>
+  </si>
+  <si>
+    <t>TP = 18.0</t>
+  </si>
+  <si>
+    <t>FP =12.0</t>
+  </si>
+  <si>
+    <t>TN = 7.0</t>
+  </si>
+  <si>
+    <t>TP = 12.0</t>
+  </si>
+  <si>
+    <t>FP = 7.0</t>
+  </si>
+  <si>
+    <t>FN = 8.0</t>
+  </si>
+  <si>
+    <t>TP = 11.0</t>
+  </si>
+  <si>
+    <t>FP = 1.0</t>
+  </si>
+  <si>
+    <t>Neural Network (Old Dataset)</t>
+  </si>
+  <si>
+    <t>Neural Network (New Dataset)</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>FP = 8.0</t>
+  </si>
+  <si>
+    <t>TN = 11.0</t>
+  </si>
+  <si>
+    <t>FP = 6.0</t>
+  </si>
+  <si>
+    <t>TN = 14.0</t>
+  </si>
+  <si>
+    <t>FP =7.0</t>
+  </si>
+  <si>
+    <t>TN = 13.0</t>
+  </si>
+  <si>
+    <t>FP = 5.0</t>
+  </si>
+  <si>
+    <t>TN = 15.0</t>
+  </si>
+  <si>
+    <t>TP = 14.0</t>
+  </si>
+  <si>
+    <t>FN = 5.0</t>
+  </si>
+  <si>
+    <t>FP =5.0</t>
+  </si>
+  <si>
+    <t>FP =8.0</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F-measure</t>
+  </si>
+  <si>
+    <t>Neural Network configuration: iterations=300 | LearningRate=0.3 | Momentum:0.5</t>
+  </si>
+  <si>
+    <t>Neural Network configuration: iterations=500 | LearningRate=0.3 | Momentum:0.5</t>
+  </si>
+  <si>
+    <t>Neural Network configuration: iterations=300 | LearningRate=0.05 | Momentum:0.3</t>
+  </si>
+  <si>
+    <t>Neural Network configuration: iterations=300 | LearningRate=0.1 | Momentum:0.3</t>
+  </si>
+  <si>
+    <t>Neural Network configuration: iterations=400 | LearningRate=0.3 | Momentum:0.5</t>
+  </si>
+  <si>
+    <t>Neural Network configuration: iterations=500 | LearningRate=0.1 | Momentum:0.3</t>
+  </si>
+  <si>
+    <t>K - Nearest Neighbors (Old Dataset)</t>
+  </si>
+  <si>
+    <t>Number of Neighbors = 3</t>
+  </si>
+  <si>
+    <t>Number of Neighbors = 2</t>
+  </si>
+  <si>
+    <t>Number of Neighbors = 9</t>
+  </si>
+  <si>
+    <t>Number of Neighbors = 6</t>
+  </si>
+  <si>
+    <t>Number of Neighbors = 4</t>
+  </si>
+  <si>
+    <t>K - Nearest Neighbors (New Dataset)</t>
+  </si>
+  <si>
+    <t>Number of Neighbors = 8</t>
+  </si>
+  <si>
+    <t>Number of Neighbors = 7</t>
+  </si>
+  <si>
+    <t>Number of Neighbors = 5</t>
+  </si>
+  <si>
+    <t>Skewness of Diastolic, Skewness of Systolic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -162,6 +312,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="8">
@@ -207,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -270,8 +430,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -295,8 +479,56 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -331,26 +563,81 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="71">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="4" builtinId="34"/>
     <cellStyle name="60% - Accent1" xfId="2" builtinId="32"/>
@@ -365,6 +652,30 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
@@ -373,6 +684,30 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -758,10 +1093,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="50" customHeight="1">
@@ -771,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="50" customHeight="1">
@@ -788,10 +1123,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="50" customHeight="1">
@@ -801,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="50" customHeight="1">
@@ -818,10 +1153,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="50" customHeight="1">
@@ -831,10 +1166,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="50" customHeight="1">
@@ -848,10 +1183,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="50" customHeight="1">
@@ -861,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="50" customHeight="1">
@@ -878,10 +1213,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="50" customHeight="1">
@@ -894,7 +1229,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="50" customHeight="1">
@@ -911,7 +1246,7 @@
         <v>25</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="50" customHeight="1">
@@ -924,7 +1259,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -960,437 +1295,438 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="11"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16">
+        <v>1</v>
+      </c>
+      <c r="E3" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="B4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="19">
+        <v>0</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="25">
+        <v>1</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="25">
+        <v>0</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="19">
+        <v>0</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="25">
+        <v>1</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="25">
+        <v>0</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="19">
+        <v>0</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="25">
+        <v>1</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="25">
+        <v>0</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16">
+        <v>1</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="19">
+        <v>1</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="19">
+        <v>0</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="25">
+        <v>1</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="25">
+        <v>0</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="14">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10" t="s">
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="19">
+        <v>1</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="19">
+        <v>0</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1">
+      <c r="A26" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="25">
+        <v>1</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="25">
+        <v>0</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="19">
+        <v>1</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="19">
+        <v>0</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="25">
+        <v>1</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="25">
+        <v>0</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="26" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="17"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="6"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="14">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="17"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="14">
-        <v>1</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="6"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="14">
-        <v>0</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="9">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="17"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="9">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="11"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="14">
-        <v>1</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="6"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="14">
-        <v>0</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="9">
-        <v>1</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="17"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="9">
-        <v>0</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="14">
-        <v>1</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="6"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="14">
-        <v>0</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="9">
-        <v>1</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="17"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="9">
-        <v>0</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="14">
-        <v>1</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="6"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="14">
-        <v>0</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="9">
-        <v>1</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="17"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="9">
-        <v>0</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1436,4 +1772,1472 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I19" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="10.83203125" style="13"/>
+    <col min="9" max="9" width="19.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="I1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="22">
+      <c r="A3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31">
+        <v>0.69230000000000003</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0.47360000000000002</v>
+      </c>
+      <c r="D3" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="E3" s="31">
+        <v>0.81810000000000005</v>
+      </c>
+      <c r="F3" s="31">
+        <v>0.47367999999999999</v>
+      </c>
+      <c r="G3" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="31">
+        <v>0.69230000000000003</v>
+      </c>
+      <c r="K3" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="L3" s="32">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="M3" s="31">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="N3" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="O3" s="32">
+        <v>0.73909999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="I4" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+    </row>
+    <row r="5" spans="1:15" ht="22">
+      <c r="A5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="31">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="C5" s="31">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="E5" s="31">
+        <v>0.72719999999999996</v>
+      </c>
+      <c r="F5" s="31">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="G5" s="31">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="31">
+        <v>0.5897</v>
+      </c>
+      <c r="K5" s="31">
+        <v>0.65</v>
+      </c>
+      <c r="L5" s="31">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="M5" s="31">
+        <v>0.59089999999999998</v>
+      </c>
+      <c r="N5" s="31">
+        <v>0.65</v>
+      </c>
+      <c r="O5" s="31">
+        <v>0.61899999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="I6" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+    </row>
+    <row r="7" spans="1:15" ht="22">
+      <c r="A7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="31">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="C7" s="31">
+        <v>0.89473000000000003</v>
+      </c>
+      <c r="D7" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="31">
+        <v>0.58620000000000005</v>
+      </c>
+      <c r="F7" s="31">
+        <v>0.89473000000000003</v>
+      </c>
+      <c r="G7" s="31">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="31">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="K7" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="L7" s="31">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="M7" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="N7" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="O7" s="31">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="I8" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+    </row>
+    <row r="9" spans="1:15" ht="22">
+      <c r="A9" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="31">
+        <v>0.71789999999999998</v>
+      </c>
+      <c r="C9" s="31">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="D9" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="E9" s="31">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="F9" s="31">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="G9" s="31">
+        <v>0.64510000000000001</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="31">
+        <v>0.61529999999999996</v>
+      </c>
+      <c r="K9" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="L9" s="31">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="M9" s="31">
+        <v>0.58620000000000005</v>
+      </c>
+      <c r="N9" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="O9" s="31">
+        <v>0.69386999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="I10" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+    </row>
+    <row r="11" spans="1:15" ht="22">
+      <c r="A11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="31">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="C11" s="31">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D11" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="31">
+        <v>0.77769999999999995</v>
+      </c>
+      <c r="F11" s="31">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="G11" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="31">
+        <v>0.61529999999999996</v>
+      </c>
+      <c r="K11" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="L11" s="31">
+        <v>0.63149999999999995</v>
+      </c>
+      <c r="M11" s="31">
+        <v>0.63149999999999995</v>
+      </c>
+      <c r="N11" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="O11" s="31">
+        <v>0.61529999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="I12" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+    </row>
+    <row r="13" spans="1:15" ht="22">
+      <c r="A13" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="31">
+        <v>0.79479999999999995</v>
+      </c>
+      <c r="C13" s="31">
+        <v>0.68420000000000003</v>
+      </c>
+      <c r="D13" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="E13" s="31">
+        <v>0.86660000000000004</v>
+      </c>
+      <c r="F13" s="31">
+        <v>0.68420000000000003</v>
+      </c>
+      <c r="G13" s="31">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="31">
+        <v>0.74350000000000005</v>
+      </c>
+      <c r="K13" s="31">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L13" s="31">
+        <v>0.94730000000000003</v>
+      </c>
+      <c r="M13" s="31">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="N13" s="31">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O13" s="31">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="I14" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="I14:O14"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="I10:O10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="3.1640625" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16">
+        <v>1</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="19">
+        <v>0</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="25">
+        <v>1</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="25">
+        <v>0</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="19">
+        <v>0</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1">
+      <c r="A10" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="25">
+        <v>1</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="25">
+        <v>0</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="19">
+        <v>0</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="25">
+        <v>1</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="25">
+        <v>0</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16">
+        <v>1</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="19">
+        <v>1</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="19">
+        <v>0</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="25">
+        <v>1</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="25">
+        <v>0</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="19">
+        <v>1</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="19">
+        <v>0</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="25">
+        <v>1</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="25">
+        <v>0</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="19">
+        <v>1</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="19">
+        <v>0</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="25">
+        <v>1</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="25">
+        <v>0</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="10.83203125" style="13"/>
+    <col min="9" max="9" width="19.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="I1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="22">
+      <c r="A3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31">
+        <v>0.64102000000000003</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0.68420999999999998</v>
+      </c>
+      <c r="D3" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="E3" s="31">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="F3" s="31">
+        <v>0.68420999999999998</v>
+      </c>
+      <c r="G3" s="32">
+        <v>0.65</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="31">
+        <v>0.5897</v>
+      </c>
+      <c r="K3" s="31">
+        <v>0.45</v>
+      </c>
+      <c r="L3" s="32">
+        <v>0.73680000000000001</v>
+      </c>
+      <c r="M3" s="31">
+        <v>0.64280000000000004</v>
+      </c>
+      <c r="N3" s="31">
+        <v>0.45</v>
+      </c>
+      <c r="O3" s="32">
+        <v>0.52939999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="I4" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+    </row>
+    <row r="5" spans="1:15" ht="22">
+      <c r="A5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="31">
+        <v>0.5897</v>
+      </c>
+      <c r="C5" s="31">
+        <v>0.63156999999999996</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E5" s="31">
+        <v>0.57142000000000004</v>
+      </c>
+      <c r="F5" s="31">
+        <v>0.63156999999999996</v>
+      </c>
+      <c r="G5" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="31">
+        <v>0.69230000000000003</v>
+      </c>
+      <c r="K5" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="L5" s="31">
+        <v>0.68420000000000003</v>
+      </c>
+      <c r="M5" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="N5" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="O5" s="31">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="I6" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+    </row>
+    <row r="7" spans="1:15" ht="22">
+      <c r="A7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="31">
+        <v>0.61529999999999996</v>
+      </c>
+      <c r="C7" s="31">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="D7" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="E7" s="31">
+        <v>0.625</v>
+      </c>
+      <c r="F7" s="31">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="G7" s="31">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="31">
+        <v>0.61529999999999996</v>
+      </c>
+      <c r="K7" s="31">
+        <v>0.65</v>
+      </c>
+      <c r="L7" s="31">
+        <v>0.57889999999999997</v>
+      </c>
+      <c r="M7" s="31">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="N7" s="31">
+        <v>0.65</v>
+      </c>
+      <c r="O7" s="31">
+        <v>0.53410000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="I8" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+    </row>
+    <row r="9" spans="1:15" ht="22">
+      <c r="A9" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="31">
+        <v>0.56410000000000005</v>
+      </c>
+      <c r="C9" s="31">
+        <v>0.47360000000000002</v>
+      </c>
+      <c r="D9" s="31">
+        <v>0.65</v>
+      </c>
+      <c r="E9" s="31">
+        <v>0.5625</v>
+      </c>
+      <c r="F9" s="31">
+        <v>0.47360000000000002</v>
+      </c>
+      <c r="G9" s="31">
+        <v>0.51419999999999999</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="31">
+        <v>0.5897</v>
+      </c>
+      <c r="K9" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="L9" s="31">
+        <v>0.57889999999999997</v>
+      </c>
+      <c r="M9" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="N9" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="O9" s="31">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="I10" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+    </row>
+    <row r="11" spans="1:15" ht="22">
+      <c r="A11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="31">
+        <v>0.71789999999999998</v>
+      </c>
+      <c r="C11" s="31">
+        <v>0.68420000000000003</v>
+      </c>
+      <c r="D11" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="E11" s="31">
+        <v>0.72219999999999995</v>
+      </c>
+      <c r="F11" s="31">
+        <v>0.68420000000000003</v>
+      </c>
+      <c r="G11" s="31">
+        <v>0.70269999999999999</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="31">
+        <v>0.61529999999999996</v>
+      </c>
+      <c r="K11" s="31">
+        <v>0.65</v>
+      </c>
+      <c r="L11" s="31">
+        <v>0.57889999999999997</v>
+      </c>
+      <c r="M11" s="31">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="N11" s="31">
+        <v>0.65</v>
+      </c>
+      <c r="O11" s="31">
+        <v>0.6341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="I12" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+    </row>
+    <row r="13" spans="1:15" ht="22">
+      <c r="A13" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="31">
+        <v>0.71789999999999998</v>
+      </c>
+      <c r="C13" s="31">
+        <v>0.73680000000000001</v>
+      </c>
+      <c r="D13" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="E13" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="F13" s="31">
+        <v>0.73680000000000001</v>
+      </c>
+      <c r="G13" s="31">
+        <v>0.71789999999999998</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="31">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="K13" s="31">
+        <v>0.65</v>
+      </c>
+      <c r="L13" s="31">
+        <v>0.63149999999999995</v>
+      </c>
+      <c r="M13" s="31">
+        <v>0.65</v>
+      </c>
+      <c r="N13" s="31">
+        <v>0.65</v>
+      </c>
+      <c r="O13" s="31">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="I14" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="I14:O14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/results/Confusion Matrix.xlsx
+++ b/results/Confusion Matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="16640" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="16640" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -455,7 +455,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -527,6 +527,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -637,7 +665,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="99">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="4" builtinId="34"/>
     <cellStyle name="60% - Accent1" xfId="2" builtinId="32"/>
@@ -676,6 +704,20 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
@@ -708,6 +750,20 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1296,7 +1352,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A17" sqref="A17:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -1778,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I19" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -2270,7 +2326,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -2755,8 +2811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0"/>
